--- a/Assessments/Results.xlsx
+++ b/Assessments/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leeds365-my.sharepoint.com/personal/scsoc_leeds_ac_uk/Documents/Documents/Portfolio/Work Experience/Oxmedica/Assessments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leeds365-my.sharepoint.com/personal/scsoc_leeds_ac_uk/Documents/Documents/Portfolio/Work Experience/Oxmedica/github/Assessments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{19BA74DC-E657-D841-A931-62CE0B3B85D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2409DFA9-7FFC-7C49-9794-E8EC389A4C97}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{19BA74DC-E657-D841-A931-62CE0B3B85D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C13D7F26-4F24-8A43-A17E-3C2C6A186CD0}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{B6216A45-40FC-3442-A642-DD74E88FBA75}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{B6216A45-40FC-3442-A642-DD74E88FBA75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>Student Name</t>
   </si>
@@ -170,13 +170,70 @@
   </si>
   <si>
     <t>Network Security Concepts. Students should design a theoretical system interacting with the internet and research potential vulnerabilities. Analyse your designed system in the previous practical and identify the vulnerabilities. Research ways to fix the problems online. Prepare a lightning talk to present.</t>
+  </si>
+  <si>
+    <t>ABDULAZIZ NAIF M ALMATRAFI</t>
+  </si>
+  <si>
+    <t>FERAS SALEH KH ALZAHRANI</t>
+  </si>
+  <si>
+    <t>KHALID TARIQ WASOL ALSULAMI</t>
+  </si>
+  <si>
+    <t>ABDULLAH KHALED MOHAMMED ALSHEHRI</t>
+  </si>
+  <si>
+    <t>FARES HOMOUD N ALNEMER</t>
+  </si>
+  <si>
+    <t>MUSAED TURKI MUSAED ALHALWAN</t>
+  </si>
+  <si>
+    <t>ALBARAA ABDULRAHMAN MOHAMMED ALRUBAYAN</t>
+  </si>
+  <si>
+    <t>MOHAMMED WALEED M MAKHTOUM</t>
+  </si>
+  <si>
+    <t>RAID YAHYA M ALZAHRANI</t>
+  </si>
+  <si>
+    <t>WAEL HASSAN ABDULLAH ALJOHANI</t>
+  </si>
+  <si>
+    <t>ADEEB ABDULLAH AHMED ALQARNI</t>
+  </si>
+  <si>
+    <t>MOHAMMED JASSIM MOHAMMED BINABD</t>
+  </si>
+  <si>
+    <t>NASSER MAJED HAMOUD ALKHALDI</t>
+  </si>
+  <si>
+    <t>ABDULLAH ESHAQ ALI ALSHAYEB</t>
+  </si>
+  <si>
+    <t>FAISAL SAAD MASAAD ALSEMAIRY</t>
+  </si>
+  <si>
+    <t>ABDULLAH HASSAN A ALABBAD</t>
+  </si>
+  <si>
+    <t>AHMED ABDULLAH SALMAN ALGHAMDI</t>
+  </si>
+  <si>
+    <t>ABDULAZIZ BADR MOWED ALJOAID</t>
+  </si>
+  <si>
+    <t>NASSER ABDULAZIZ MOHAMMED ALSDAIS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -205,6 +262,17 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -226,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -243,6 +311,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -315,14 +385,14 @@
     <tableColumn id="4" xr3:uid="{E5085B3D-CC46-2A4A-B93D-5E9ABF4075E9}" name="Architecture Practical" dataDxfId="10"/>
     <tableColumn id="5" xr3:uid="{C18BD47F-0EA3-4041-9216-820A80A6F243}" name="Databases Practical" dataDxfId="9"/>
     <tableColumn id="6" xr3:uid="{9EB076C0-4FAC-C540-8103-B6AF0B0500F3}" name="Crytographic Techniques Practical" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{A2BE85ED-D330-9549-BF84-7BD33BCC1A4B}" name="Group Discussion" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{B6FBB92A-734B-0948-830D-C6B597AC5AE0}" name="Group Debate" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{AC593697-65DF-8543-A4EF-C641AB08725B}" name="Network Security Practical" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{8E855778-4291-B749-AA04-444D6BB96681}" name="Hacking &amp; Cyber Attacks Practical" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{6520ECC9-8051-7045-AA87-6222D266D5C7}" name="Written Assessment" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{1C395B45-9055-2543-9A2C-6A8223390770}" name="Class Participation" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{018B6903-5A14-7444-A810-CB3524D24DD4}" name="Peer-to-peer interaction" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{E715CBCD-1EEA-1B46-80C4-7E560AFF5A6B}" name="Exercises" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{A2BE85ED-D330-9549-BF84-7BD33BCC1A4B}" name="Group Discussion" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{B6FBB92A-734B-0948-830D-C6B597AC5AE0}" name="Group Debate" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{AC593697-65DF-8543-A4EF-C641AB08725B}" name="Network Security Practical" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{8E855778-4291-B749-AA04-444D6BB96681}" name="Hacking &amp; Cyber Attacks Practical" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{6520ECC9-8051-7045-AA87-6222D266D5C7}" name="Written Assessment" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{1C395B45-9055-2543-9A2C-6A8223390770}" name="Class Participation" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{018B6903-5A14-7444-A810-CB3524D24DD4}" name="Peer-to-peer interaction" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{E715CBCD-1EEA-1B46-80C4-7E560AFF5A6B}" name="Exercises" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -647,13 +717,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72952E63-A724-8049-81E4-ABBD73FAE8CD}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
@@ -737,7 +807,7 @@
       <c r="H2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -889,7 +959,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+      <c r="A6" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -905,7 +977,9 @@
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
+      <c r="A7" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -921,7 +995,9 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+      <c r="A8" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -937,7 +1013,9 @@
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+      <c r="A9" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -953,7 +1031,9 @@
       <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+      <c r="A10" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -969,7 +1049,9 @@
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+      <c r="A11" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -985,7 +1067,9 @@
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+      <c r="A12" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1001,7 +1085,9 @@
       <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+      <c r="A13" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1017,7 +1103,9 @@
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
+      <c r="A14" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1033,7 +1121,9 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
+      <c r="A15" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1049,7 +1139,9 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
+      <c r="A16" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1065,7 +1157,9 @@
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
+      <c r="A17" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1081,7 +1175,9 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
+      <c r="A18" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1097,7 +1193,9 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
+      <c r="A19" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1113,7 +1211,9 @@
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
+      <c r="A20" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1129,7 +1229,9 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
+      <c r="A21" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1145,7 +1247,9 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
+      <c r="A22" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1161,7 +1265,9 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
+      <c r="A23" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1177,7 +1283,9 @@
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
+      <c r="A24" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1193,7 +1301,7 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1290,6 +1398,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
